--- a/store.xlsx
+++ b/store.xlsx
@@ -1,159 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\studies2\1_mycode\tmp-code-python\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA28A0E4-E9C6-46F0-A053-C31F96F94601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2091" yWindow="2091" windowWidth="30446" windowHeight="14700" tabRatio="991" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2091" yWindow="2091" windowWidth="30446" windowHeight="14700" tabRatio="991" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" r:id="rId1"/>
-    <sheet name="Sales 2018" sheetId="2" r:id="rId2"/>
+    <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sales 2018" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Product Name</t>
-  </si>
-  <si>
-    <t>Total Units</t>
-  </si>
-  <si>
-    <t>Unit Price</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Mobile Phone</t>
-  </si>
-  <si>
-    <t>Laptop</t>
-  </si>
-  <si>
-    <t>Smart Watch</t>
-  </si>
-  <si>
-    <t>Fitness Band</t>
-  </si>
-  <si>
-    <t>VR Headset</t>
-  </si>
-  <si>
-    <t>E-Reader</t>
-  </si>
-  <si>
-    <t>Headphones</t>
-  </si>
-  <si>
-    <t>Camera</t>
-  </si>
-  <si>
-    <t>Game Console</t>
-  </si>
-  <si>
-    <t>Video Projector</t>
-  </si>
-  <si>
-    <t>Total Sales</t>
-  </si>
-  <si>
-    <t>January</t>
-  </si>
-  <si>
-    <t>February</t>
-  </si>
-  <si>
-    <t>March</t>
-  </si>
-  <si>
-    <t>April</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>June</t>
-  </si>
-  <si>
-    <t>July</t>
-  </si>
-  <si>
-    <t>August</t>
-  </si>
-  <si>
-    <t>September</t>
-  </si>
-  <si>
-    <t>October</t>
-  </si>
-  <si>
-    <t>November</t>
-  </si>
-  <si>
-    <t>December</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="6">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="14"/>
       <name val="Veranda"/>
       <charset val="1"/>
+      <sz val="14"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
       <name val="Veranda"/>
       <charset val="1"/>
+      <b val="1"/>
+      <sz val="14"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="14"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
+      <name val="Verdana"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="14"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <name val="Verdana"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <b val="1"/>
       <sz val="14"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="4">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -184,17 +88,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -264,14 +167,6 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -591,336 +486,427 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="17.15234375" style="1"/>
-    <col min="2" max="2" width="23.921875" style="1"/>
-    <col min="3" max="1025" width="17.15234375" style="1"/>
+    <col width="17.15234375" customWidth="1" style="1" min="1" max="1"/>
+    <col width="23.921875" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17.15234375" customWidth="1" style="1" min="3" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" ht="17.4" customHeight="1">
+      <c r="A1" s="2" t="n"/>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Product Name</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Total Units</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Total Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.4" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Mobile Phone</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="n">
+        <v>400</v>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="3" ht="17.4" customHeight="1">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>800</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="4" ht="17.4" customHeight="1">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Smart Watch</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="D4" s="3" t="n">
+        <v>150</v>
+      </c>
+      <c r="E4" s="3" t="n">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="5" ht="17.4" customHeight="1">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="3">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3">
-        <v>400</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Fitness Band</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="6" ht="17.4" customHeight="1">
+      <c r="A6" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>VR Headset</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="E6" s="3" t="n">
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="3">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3">
+    <row r="7" ht="17.4" customHeight="1">
+      <c r="A7" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>E-Reader</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="8" ht="17.4" customHeight="1">
+      <c r="A8" s="3" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Headphones</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="D8" s="3" t="n">
+        <v>80</v>
+      </c>
+      <c r="E8" s="3" t="n">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="9" ht="17.4" customHeight="1">
+      <c r="A9" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Camera</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="10" ht="17.4" customHeight="1">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Game Console</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>700</v>
+      </c>
+      <c r="E10" s="3" t="n">
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="11" ht="17.4" customHeight="1">
+      <c r="A11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Video Projector</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D11" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="E3" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3">
-        <v>50</v>
-      </c>
-      <c r="D4" s="3">
-        <v>150</v>
-      </c>
-      <c r="E4" s="3">
-        <v>7500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3">
-        <v>30</v>
-      </c>
-      <c r="D5" s="3">
-        <v>100</v>
-      </c>
-      <c r="E5" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="3">
-        <v>20</v>
-      </c>
-      <c r="D6" s="3">
-        <v>300</v>
-      </c>
-      <c r="E6" s="3">
-        <v>6000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="3">
-        <v>30</v>
-      </c>
-      <c r="D7" s="3">
-        <v>100</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="3">
-        <v>80</v>
-      </c>
-      <c r="D8" s="3">
-        <v>80</v>
-      </c>
-      <c r="E8" s="3">
-        <v>6400</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="E11" s="3" t="n">
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tablet</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>12</v>
+      </c>
+      <c r="D12" t="n">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
-        <v>12000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="3">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3">
-        <v>700</v>
-      </c>
-      <c r="E10" s="3">
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.399999999999999" customHeight="1">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3">
-        <v>10</v>
-      </c>
-      <c r="D11" s="3">
-        <v>800</v>
-      </c>
-      <c r="E11" s="3">
-        <v>8000</v>
+      <c r="E12" t="n">
+        <v>7200</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" orientation="portrait" usePrinterDefaults="0" useFirstPageNumber="1" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="0" scale="0" useFirstPageNumber="1" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMK13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B13"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.600000000000001"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="17.6"/>
   <cols>
-    <col min="1" max="1" width="17.3828125" style="4"/>
-    <col min="2" max="2" width="18.4609375" style="4"/>
-    <col min="3" max="1025" width="14.4609375" style="4"/>
+    <col width="17.3828125" customWidth="1" style="4" min="1" max="1"/>
+    <col width="18.4609375" customWidth="1" style="4" min="2" max="2"/>
+    <col width="14.4609375" customWidth="1" style="4" min="3" max="1025"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="5"/>
-      <c r="B1" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4">
+    <row r="1" ht="17.4" customHeight="1">
+      <c r="A1" s="5" t="n"/>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>Total Sales</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="17.4" customHeight="1">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>January</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="n">
         <v>30000</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="4">
+    <row r="3" ht="17.4" customHeight="1">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>February</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="n">
         <v>26000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="4">
+    <row r="4" ht="17.4" customHeight="1">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>March</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>32000</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" ht="17.4" customHeight="1">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>April</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>28000</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="4">
+    <row r="6" ht="17.4" customHeight="1">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>May</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>24000</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="7" ht="17.4" customHeight="1">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>June</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="n">
         <v>32000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="8" ht="17.4" customHeight="1">
+      <c r="A8" s="4" t="inlineStr">
+        <is>
+          <t>July</t>
+        </is>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>34000</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9" ht="17.4" customHeight="1">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>August</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>36000</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" ht="17.4" customHeight="1">
+      <c r="A10" s="4" t="inlineStr">
+        <is>
+          <t>September</t>
+        </is>
+      </c>
+      <c r="B10" s="4" t="n">
         <v>38000</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="11" ht="17.4" customHeight="1">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>October</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="n">
         <v>39000</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" ht="17.4" customHeight="1">
+      <c r="A12" s="4" t="inlineStr">
+        <is>
+          <t>November</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="n">
         <v>40000</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="17.399999999999999" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="4">
+    <row r="13" ht="17.4" customHeight="1">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="n">
         <v>37000</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="0" scale="0" firstPageNumber="0" orientation="portrait" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="0" scale="0" firstPageNumber="0" usePrinterDefaults="0" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Page &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>
--- a/store.xlsx
+++ b/store.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="2091" yWindow="2091" windowWidth="30446" windowHeight="14700" tabRatio="991" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6094" yWindow="2537" windowWidth="22063" windowHeight="14700" tabRatio="991" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.6"/>

--- a/store.xlsx
+++ b/store.xlsx
@@ -542,8 +542,9 @@
       <c r="D2" s="3" t="n">
         <v>400</v>
       </c>
-      <c r="E2" s="3" t="n">
-        <v>6000</v>
+      <c r="E2" s="3">
+        <f>C2*D2</f>
+        <v/>
       </c>
     </row>
     <row r="3" ht="17.4" customHeight="1">
@@ -561,8 +562,9 @@
       <c r="D3" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="E3" s="3" t="n">
-        <v>12000</v>
+      <c r="E3" s="3">
+        <f>C3*D3</f>
+        <v/>
       </c>
     </row>
     <row r="4" ht="17.4" customHeight="1">
@@ -580,8 +582,9 @@
       <c r="D4" s="3" t="n">
         <v>150</v>
       </c>
-      <c r="E4" s="3" t="n">
-        <v>7500</v>
+      <c r="E4" s="3">
+        <f>C4*D4</f>
+        <v/>
       </c>
     </row>
     <row r="5" ht="17.4" customHeight="1">
@@ -599,8 +602,9 @@
       <c r="D5" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E5" s="3" t="n">
-        <v>3000</v>
+      <c r="E5" s="3">
+        <f>C5*D5</f>
+        <v/>
       </c>
     </row>
     <row r="6" ht="17.4" customHeight="1">
@@ -618,8 +622,9 @@
       <c r="D6" s="3" t="n">
         <v>300</v>
       </c>
-      <c r="E6" s="3" t="n">
-        <v>6000</v>
+      <c r="E6" s="3">
+        <f>C6*D6</f>
+        <v/>
       </c>
     </row>
     <row r="7" ht="17.4" customHeight="1">
@@ -637,8 +642,9 @@
       <c r="D7" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="E7" s="3" t="n">
-        <v>3000</v>
+      <c r="E7" s="3">
+        <f>C7*D7</f>
+        <v/>
       </c>
     </row>
     <row r="8" ht="17.4" customHeight="1">
@@ -656,8 +662,9 @@
       <c r="D8" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="E8" s="3" t="n">
-        <v>6400</v>
+      <c r="E8" s="3">
+        <f>C8*D8</f>
+        <v/>
       </c>
     </row>
     <row r="9" ht="17.4" customHeight="1">
@@ -675,8 +682,9 @@
       <c r="D9" s="3" t="n">
         <v>600</v>
       </c>
-      <c r="E9" s="3" t="n">
-        <v>12000</v>
+      <c r="E9" s="3">
+        <f>C9*D9</f>
+        <v/>
       </c>
     </row>
     <row r="10" ht="17.4" customHeight="1">
@@ -694,8 +702,9 @@
       <c r="D10" s="3" t="n">
         <v>700</v>
       </c>
-      <c r="E10" s="3" t="n">
-        <v>17500</v>
+      <c r="E10" s="3">
+        <f>C10*D10</f>
+        <v/>
       </c>
     </row>
     <row r="11" ht="17.4" customHeight="1">
@@ -713,8 +722,9 @@
       <c r="D11" s="3" t="n">
         <v>800</v>
       </c>
-      <c r="E11" s="3" t="n">
-        <v>8000</v>
+      <c r="E11" s="3">
+        <f>C11*D11</f>
+        <v/>
       </c>
     </row>
     <row r="12">
@@ -732,8 +742,9 @@
       <c r="D12" t="n">
         <v>600</v>
       </c>
-      <c r="E12" t="n">
-        <v>7200</v>
+      <c r="E12">
+        <f>C12*D12</f>
+        <v/>
       </c>
     </row>
   </sheetData>

--- a/store.xlsx
+++ b/store.xlsx
@@ -6,8 +6,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6094" yWindow="2537" windowWidth="22063" windowHeight="14700" tabRatio="991" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Products" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sales 2018" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="NewSheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Products" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sales 2018" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="NewSheet1 Copy" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -491,6 +493,24 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
@@ -761,7 +781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -920,4 +940,22 @@
     <firstFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/store.xlsx
+++ b/store.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6094" yWindow="2537" windowWidth="22063" windowHeight="14700" tabRatio="991" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6094" yWindow="2537" windowWidth="22063" windowHeight="14700" tabRatio="991" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewSheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="NewSheet1 Copy" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <name val="Arial"/>
       <charset val="1"/>
@@ -56,6 +56,20 @@
       <b val="1"/>
       <sz val="14"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="FF0000FF"/>
+      <sz val="16"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="000000FF"/>
+      <sz val="16"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -89,13 +103,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,14 +509,18 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B4:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.45"/>
+  <sheetData>
+    <row r="4" ht="19.75" customHeight="1">
+      <c r="B4" s="6" t="n"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -514,7 +534,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E12"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="17.6"/>
@@ -591,7 +611,7 @@
       <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Smart Watch</t>
         </is>
@@ -954,7 +974,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="12.45"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
